--- a/ahoy_pcb/gerber/production/ahoy-pcb-bom.xlsx
+++ b/ahoy_pcb/gerber/production/ahoy-pcb-bom.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Keyboard Stuff\ahoy_macropad\ahoy_pcb\gerber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Keyboard Stuff\ahoy_macropad\ahoy_pcb\gerber\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41429D4-6709-4313-B13B-A8DC482C4D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F8C5C-0391-43BC-B493-8DB201CBA76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26580" yWindow="-360" windowWidth="18705" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="3420" windowWidth="24225" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Comment</t>
   </si>
@@ -75,9 +84,6 @@
     <t>D_SOD-123 Diode</t>
   </si>
   <si>
-    <t xml:space="preserve">LED1, LED2, LED3, LED4, LED5, LED6, LED7, LED8, </t>
-  </si>
-  <si>
     <t>SOD-123</t>
   </si>
   <si>
@@ -93,15 +99,6 @@
     <t>C70076</t>
   </si>
   <si>
-    <t>LED-4_3535</t>
-  </si>
-  <si>
-    <t>C114583</t>
-  </si>
-  <si>
-    <t>WS2812B-Mini</t>
-  </si>
-  <si>
     <t>C17561</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>C1, C2</t>
   </si>
   <si>
-    <t>C4, C5, C6</t>
-  </si>
-  <si>
     <t>C7, C8, C9, C10, C11, C12, C13, C14, C15</t>
   </si>
   <si>
@@ -210,13 +204,13 @@
     <t>C165948</t>
   </si>
   <si>
-    <t>C9002</t>
-  </si>
-  <si>
     <t>SMD-3225_4P</t>
   </si>
   <si>
     <t>J1</t>
+  </si>
+  <si>
+    <t>C4, C5, C6, C16</t>
   </si>
 </sst>
 </file>
@@ -711,7 +705,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -733,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="14.25">
@@ -741,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -769,7 +763,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -783,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -797,182 +791,166 @@
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="14.25">
       <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="4"/>
